--- a/参考/接口.xlsx
+++ b/参考/接口.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\大创\接口\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\teamAI\TeamAI-FrontEnd\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FC55AF-1C09-4801-AD64-A248BA96E516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE0E7E-496C-431D-B259-D074622A0A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取用户所有机器学习模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String userId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取用户所有学习模型，但信息更精简</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String configId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -816,10 +808,6 @@
   </si>
   <si>
     <t>获得某个模型所属类型的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用机器学习模型进行训练，并返回训练结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -861,6 +849,18 @@
   </si>
   <si>
     <t>空的Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有机器学习模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用机器学习模型进行训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户所有学习模型，信息更精简</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1101,12 +1101,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1116,6 +1215,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1123,114 +1231,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1521,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:O9"/>
+    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1537,301 +1537,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="24" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="30" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="23" t="s">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="16" t="s">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="16"/>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="42" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="20"/>
-    </row>
-    <row r="6" spans="1:23" s="2" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="43" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="44" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="19"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="18"/>
-    </row>
-    <row r="7" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="43" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="31"/>
+      <c r="M8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="44" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" s="18"/>
-    </row>
-    <row r="8" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" s="19"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="W8" s="18"/>
-    </row>
-    <row r="9" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="21" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="42" t="s">
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="18"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
@@ -1839,1345 +1839,1345 @@
         <v>15</v>
       </c>
       <c r="C10" s="48"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="6" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="42" t="s">
+      <c r="Q10" s="40"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="19"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="6" t="s">
+      <c r="T10" s="8"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="W10" s="8"/>
+      <c r="W10" s="41"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="42" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="19"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="14"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="44"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="42" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="19"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="11"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="47"/>
     </row>
     <row r="13" spans="1:23" ht="70.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="21" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="6" t="s">
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="42" t="s">
+      <c r="Q13" s="40"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="18"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14" spans="1:23" ht="70.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="17" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="44" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="21" t="s">
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="42" t="s">
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="19"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="18"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="7"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="6" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="42" t="s">
+      <c r="Q15" s="40"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="20"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="9"/>
     </row>
     <row r="16" spans="1:23" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="17" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="44" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="T16" s="19"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="18"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="7"/>
     </row>
     <row r="17" spans="1:23" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="T17" s="19"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="18"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="7"/>
     </row>
     <row r="18" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="18"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="7"/>
     </row>
     <row r="19" spans="1:23" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="T19" s="19"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="18"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="T20" s="19"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="18"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="7"/>
     </row>
     <row r="21" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="21" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="T21" s="19"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="18"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="7"/>
     </row>
     <row r="22" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="4" t="s">
+      <c r="L22" s="31"/>
+      <c r="M22" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="T22" s="19"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="18"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="4" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="T23" s="19"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="18"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="7"/>
     </row>
     <row r="24" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="T24" s="19"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="18"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="31"/>
+      <c r="M24" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="4" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="T25" s="19"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="18"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="31"/>
+      <c r="M25" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="7"/>
     </row>
     <row r="26" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="44" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="T26" s="19"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="18"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="7"/>
     </row>
     <row r="27" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="4" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="T27" s="19"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="18"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="7"/>
     </row>
     <row r="28" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="42" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="T28" s="19"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="18"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="31"/>
+      <c r="M28" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="T28" s="8"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="7"/>
     </row>
     <row r="29" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="42" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="T29" s="19"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="18"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="7"/>
     </row>
     <row r="30" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="T30" s="19"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="18"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="7"/>
     </row>
     <row r="31" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="T31" s="19"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="18"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="T31" s="8"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="7"/>
     </row>
     <row r="32" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
-      <c r="B32" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="T32" s="19"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="18"/>
+      <c r="B32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="31"/>
+      <c r="M32" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="T32" s="8"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="7"/>
     </row>
     <row r="33" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="T33" s="19"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="W33" s="20"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="T33" s="8"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="W33" s="9"/>
     </row>
     <row r="34" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="T34" s="19"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="18"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="L34" s="31"/>
+      <c r="M34" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="T34" s="8"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="7"/>
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="4" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="42" t="s">
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="T35" s="19"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="20"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="T35" s="8"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="9"/>
     </row>
     <row r="36" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="T36" s="19"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="18"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="T36" s="8"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="7"/>
     </row>
     <row r="37" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
-      <c r="B37" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="44" t="s">
+      <c r="B37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="4" t="s">
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="T37" s="19"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="18"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="7"/>
     </row>
     <row r="38" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="T38" s="19"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="18"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="L38" s="31"/>
+      <c r="M38" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="7"/>
     </row>
     <row r="39" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="T39" s="19"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="18"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="L39" s="31"/>
+      <c r="M39" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="T39" s="8"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="7"/>
     </row>
     <row r="40" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="42" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="T40" s="19"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="18"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="T40" s="8"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="7"/>
     </row>
     <row r="41" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="T41" s="19"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="18"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="T41" s="8"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="7"/>
     </row>
     <row r="42" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="T42" s="19"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="18"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L42" s="31"/>
+      <c r="M42" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="T42" s="8"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="7"/>
     </row>
     <row r="43" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="44" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="L43" s="31"/>
+      <c r="M43" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="T43" s="19"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="18"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="7"/>
     </row>
     <row r="44" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="T44" s="19"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="18"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="L44" s="31"/>
+      <c r="M44" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="T44" s="8"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="7"/>
     </row>
     <row r="45" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="T45" s="19"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="18"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="L45" s="31"/>
+      <c r="M45" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="T45" s="8"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="7"/>
     </row>
     <row r="46" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="T46" s="19"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="18"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="L46" s="31"/>
+      <c r="M46" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="T46" s="8"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="7"/>
     </row>
     <row r="47" spans="1:23" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="44" t="s">
-        <v>205</v>
-      </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="T47" s="19"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="18"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="L47" s="31"/>
+      <c r="M47" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="T47" s="8"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="7"/>
     </row>
     <row r="48" spans="1:23" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3257,6 +3257,10 @@
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="K46:L46"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
     <mergeCell ref="B32:C36"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
@@ -3271,6 +3275,8 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="V27:W27"/>
     <mergeCell ref="V28:W28"/>
@@ -3293,8 +3299,6 @@
     <mergeCell ref="M31:O31"/>
     <mergeCell ref="S28:U28"/>
     <mergeCell ref="S31:U31"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
     <mergeCell ref="F26:J26"/>
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="F28:J28"/>
@@ -3306,10 +3310,6 @@
     <mergeCell ref="F32:J32"/>
     <mergeCell ref="F33:J33"/>
     <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="M32:O32"/>
     <mergeCell ref="M33:O33"/>
@@ -3368,6 +3368,8 @@
     <mergeCell ref="F20:J20"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="P10:R12"/>
     <mergeCell ref="S23:U23"/>
     <mergeCell ref="S24:U24"/>
@@ -3383,7 +3385,9 @@
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="S13:U13"/>
     <mergeCell ref="S14:U14"/>
-    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P13:R14"/>
+    <mergeCell ref="P15:R21"/>
+    <mergeCell ref="P22:R31"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="F11:J11"/>
@@ -3400,7 +3404,15 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="F22:J22"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
@@ -3410,15 +3422,6 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="F22:J22"/>
     <mergeCell ref="A1:W2"/>
     <mergeCell ref="F3:J4"/>
     <mergeCell ref="S3:U4"/>
@@ -3440,9 +3443,8 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="M6:O6"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="P13:R14"/>
-    <mergeCell ref="P15:R21"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
     <mergeCell ref="B15:C21"/>
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="D10:E10"/>
@@ -3457,13 +3459,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="P22:R31"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
